--- a/src/main/java/testdata/Baseline File.xlsx
+++ b/src/main/java/testdata/Baseline File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="4" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>03192021 Company: 564!1Automation Subcontractor 1-DO NOT TOUCH: Missing!Allstate Striping &amp; Sealing Co: Missing!Bala Con T1 Entity#2: BALAT1-002!CentiMark Corporation: Missing!Comapany 2: Missing!D.E. Alston Enterprises LLC: Missing!Estime Enterprises, Inc: Missing!G&amp;M Services LLC: Missing!Hauling Unlimited, LLC: Missing!IN-1884 Subcontractor Tier 1: 1884!Jay &amp; Los Transport, LLC: Missing!Kara Test: C#3455555!Late Starter Sub: Missing!May Branch Test: Missing!Midwest Mole, Inc.: Missing!New Q3 Automation Subcontractor 10062021: 12347878!New Subcontractor: Missing!Oklahoma Sub: Missing!Pipefitters Inc: Missing!Q3 Tier 2 Subcontractor: Missing!RE Lee Electric Co, Inc. : Missing!S1New: Missing!Tawakal Transportation LLC: Missing!Test Tier 2: Missing!Union Sub: Missing!Vision Technologies, Inc.: Missing!White Car Sub: Missing!XYZ Company : Missing!YM Tier 2 Sub: Missing!Z-Best Wallcoverings, Inc.: Missing!</t>
   </si>
   <si>
-    <t>Basic Project!Copy Subs 2 Test!Copy Subs Project - Orchid!Mortenson Washington!No Entity Project!No Subs Project!P3 Test Project!Prev. Wage Project - All Features-new!RPAI Test Project 1!RPAI Test Project 2!Spring Copy Project!Wayne County Test Project</t>
-  </si>
-  <si>
     <t>PayrollSchedule</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>Select...!Full Time Worker!Part Time Worker!Contract Worker!Temp Worker</t>
+  </si>
+  <si>
+    <t>Basic Project!Copy Subs 2 Test!Copy Subs Project - Orchid!Mortenson Washington!No Entity Project!No Subs Project!P3 Test Project!Prev. Wage Project - All Features-new!Clone of Prev. Wage Project - All Features-new!No Entity No Region Project!Spring Copy Project!Wayne County Test Project</t>
   </si>
 </sst>
 </file>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -660,7 +660,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>47</v>
@@ -968,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>1</v>
@@ -1058,10 +1058,10 @@
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1122,24 +1122,24 @@
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
@@ -1151,16 +1151,16 @@
         <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/Baseline File.xlsx
+++ b/src/main/java/testdata/Baseline File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Gender</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>None!Weekly!BiWeekly!Monthly!Quarterly!Annually</t>
-  </si>
-  <si>
-    <t>ProjectReportingDate</t>
   </si>
   <si>
     <t>1!2!3!4!5!6!7!8!9!10!11!12!13!14!15!16!17!18!19!20!21!22!23!24!25!26!27!28</t>
@@ -228,9 +225,6 @@
     <t>03192021 Company: 564!1Automation Subcontractor 1-DO NOT TOUCH: Missing!Allstate Striping &amp; Sealing Co: Missing!Bala Con T1 Entity#2: BALAT1-002!CentiMark Corporation: Missing!Comapany 2: Missing!D.E. Alston Enterprises LLC: Missing!Estime Enterprises, Inc: Missing!G&amp;M Services LLC: Missing!Hauling Unlimited, LLC: Missing!IN-1884 Subcontractor Tier 1: 1884!Jay &amp; Los Transport, LLC: Missing!Kara Test: C#3455555!Late Starter Sub: Missing!May Branch Test: Missing!Midwest Mole, Inc.: Missing!New Q3 Automation Subcontractor 10062021: 12347878!New Subcontractor: Missing!Oklahoma Sub: Missing!Pipefitters Inc: Missing!Q3 Tier 2 Subcontractor: Missing!RE Lee Electric Co, Inc. : Missing!S1New: Missing!Tawakal Transportation LLC: Missing!Test Tier 2: Missing!Union Sub: Missing!Vision Technologies, Inc.: Missing!White Car Sub: Missing!XYZ Company : Missing!YM Tier 2 Sub: Missing!Z-Best Wallcoverings, Inc.: Missing!</t>
   </si>
   <si>
-    <t>Basic Project!Copy Subs 2 Test!Copy Subs Project - Orchid!Mortenson Washington!No Entity Project!No Subs Project!P3 Test Project!Prev. Wage Project - All Features-new!RPAI Test Project 1!RPAI Test Project 2!Spring Copy Project!Wayne County Test Project</t>
-  </si>
-  <si>
     <t>PayrollSchedule</t>
   </si>
   <si>
@@ -277,6 +271,39 @@
   </si>
   <si>
     <t>Select...!Full Time Worker!Part Time Worker!Contract Worker!Temp Worker</t>
+  </si>
+  <si>
+    <t>Basic Project!Copy Subs 2 Test!Copy Subs Project - Orchid!Mortenson Washington!No Entity Project!No Subs Project!P3 Test Project!Prev. Wage Project - All Features-new!Spring Copy Project!Clone of Prev. Wage Project - All Features-new!No Entity No Region Project!Wayne County Test Project</t>
+  </si>
+  <si>
+    <t>ProjectStatus</t>
+  </si>
+  <si>
+    <t>Active - users are able to access the project!Complete - users will still be able to access, but project will be flagged as complete!Closed - only GC's can access project once it's closed</t>
+  </si>
+  <si>
+    <t>SelectOne</t>
+  </si>
+  <si>
+    <t>Day Of Month!Day And Week!Day And Week With Offset!First Day Of Month!Last Day Of Month</t>
+  </si>
+  <si>
+    <t>Jan!Feb!Mar!Apr!May!Jun!Jul!Aug!Sep!Oct!Nov!Dec</t>
+  </si>
+  <si>
+    <t>ProjectReportingDayWeekly</t>
+  </si>
+  <si>
+    <t>ProjectReportingDayBiWeekly</t>
+  </si>
+  <si>
+    <t>ProjectReportingDateMonthly</t>
+  </si>
+  <si>
+    <t>StartMonthQuarterly</t>
+  </si>
+  <si>
+    <t>ProjectReportingDateQuarterly</t>
   </si>
 </sst>
 </file>
@@ -324,10 +351,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -647,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,9 +684,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
+    <row r="2" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -695,98 +721,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="13" max="15" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
+      <c r="U2" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +888,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -823,86 +900,86 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="O2" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="7"/>
+      <c r="P2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -951,48 +1028,48 @@
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1049,42 +1126,42 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="2" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1113,54 +1190,54 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testdata/Baseline File.xlsx
+++ b/src/main/java/testdata/Baseline File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>Gender</t>
   </si>
@@ -304,6 +304,24 @@
   </si>
   <si>
     <t>ProjectReportingDateQuarterly</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>Show All!Needs a Wage Rate!Out of Compliance</t>
+  </si>
+  <si>
+    <t>Validated</t>
+  </si>
+  <si>
+    <t>Assigned to Project</t>
+  </si>
+  <si>
+    <t>Show All!Validated!Not Validated</t>
+  </si>
+  <si>
+    <t>Show All!Assigned!Not Assigned</t>
   </si>
 </sst>
 </file>
@@ -1171,72 +1189,90 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="1"/>
+    <col min="1" max="12" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>63</v>
       </c>
     </row>

--- a/src/main/java/testdata/Baseline File.xlsx
+++ b/src/main/java/testdata/Baseline File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>Gender</t>
   </si>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,8 +1257,8 @@
       <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>31</v>

--- a/src/main/java/testdata/Baseline File.xlsx
+++ b/src/main/java/testdata/Baseline File.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>Gender</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>Show All!Assigned!Not Assigned</t>
+  </si>
+  <si>
+    <t>SelectLayout</t>
+  </si>
+  <si>
+    <t>Select one!Simple Employee Import!Encrypted Simple Employee Import!Template Employee Layout</t>
   </si>
 </sst>
 </file>
@@ -895,7 +901,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,90 +1195,96 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="9.140625" style="1"/>
+    <col min="1" max="13" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
